--- a/output/output_loc_bradleycooper.xlsx
+++ b/output/output_loc_bradleycooper.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRABA\PycharmProjects\Spark\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -166,8 +171,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +209,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +330,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,14 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -520,7 +537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -531,7 +548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -542,7 +559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -553,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -564,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -575,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -586,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -597,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -608,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -619,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -630,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -641,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -652,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -663,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -674,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -685,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -696,7 +713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -707,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -718,7 +735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -729,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -740,7 +757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -751,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -762,7 +779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -773,7 +790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -784,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -795,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -806,7 +823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -817,7 +834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -828,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -839,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -850,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -861,7 +878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -872,7 +889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -883,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -894,7 +911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -905,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -916,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -927,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -938,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -949,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -960,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -971,7 +988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -982,7 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -993,7 +1010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1004,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1015,7 +1032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1026,7 +1043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
